--- a/Planificación.xlsx
+++ b/Planificación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\WorkSpaceUnity\ProyectoDAM\ProyectoDAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1759598-E95A-4597-A7ED-0EF892365E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F694EA-FDE7-410E-A6AF-B9FAAE951439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7539EC48-8CC5-4FAA-A6AA-38D90801A61B}"/>
   </bookViews>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Diseño App</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Tarea</t>
   </si>
@@ -79,9 +76,6 @@
     <t>BBDD</t>
   </si>
   <si>
-    <t>Desarrollo back-end(java)</t>
-  </si>
-  <si>
     <t>Sin problemas destacados</t>
   </si>
   <si>
@@ -97,18 +91,80 @@
     <t>Configuración hosting</t>
   </si>
   <si>
-    <t>Problemas para encontrar un hosting gratuito que responda bien y utilice certificados SSL.</t>
-  </si>
-  <si>
     <t>Encontrado a traves de la busqueda por internet.</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>F.J.Seleiro</t>
+  </si>
+  <si>
+    <t>Desarrollo App</t>
+  </si>
+  <si>
+    <t>Problemas para encontrar un hosting gratuito que responda bien y utilice certificados SSL. Otro problema destacable es que el hosting no se mantiene online todo el tiempo.</t>
+  </si>
+  <si>
+    <t>Desarrollo back-end(java) Inicial</t>
+  </si>
+  <si>
+    <t>Desarrollo back-end(java) Fase intermedia</t>
+  </si>
+  <si>
+    <t>Revisión de código y pequeñas correcciones.</t>
+  </si>
+  <si>
+    <t>Sin problemas relevantes</t>
+  </si>
+  <si>
+    <t>Ambos</t>
+  </si>
+  <si>
+    <t>Memoria</t>
+  </si>
+  <si>
+    <t>Redacción de la memoria</t>
+  </si>
+  <si>
+    <t>Correción memoria</t>
+  </si>
+  <si>
+    <t>Repaso</t>
+  </si>
+  <si>
+    <t>Repaso global y entrega</t>
+  </si>
+  <si>
+    <t>G.Herreros Peláez</t>
+  </si>
+  <si>
+    <t>Desarrollo back-end(PHP) Inicial</t>
+  </si>
+  <si>
+    <t>Conexión a la base de datos y desarrollo del MVC</t>
+  </si>
+  <si>
+    <t>Comprobar los métodos usados, las importaciones y conexión a la base de datos</t>
+  </si>
+  <si>
+    <t>Añadido el campo solucionado a la base de datos y la tabla administrador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,19 +192,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A349E931-4600-4518-A07F-42AF179FD15E}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
@@ -481,30 +538,32 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -512,10 +571,10 @@
     </row>
     <row r="2" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4">
         <v>44484</v>
@@ -530,162 +589,305 @@
         <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44502</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44502</v>
+      </c>
+      <c r="E3" s="3">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3">
+        <v>50</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44494</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44520</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2">
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44484</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44489</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
         <v>44494</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D6" s="4">
         <v>44520</v>
       </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="C7" s="4">
+        <v>44520</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44525</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
         <v>44484</v>
       </c>
-      <c r="D4" s="2">
-        <v>44489</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D8" s="4">
+        <v>44501</v>
+      </c>
+      <c r="E8" s="3">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44501</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44505</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44501</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44501</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44484</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E11" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44494</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44520</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="F11" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44520</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44525</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44530</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44530</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>